--- a/prof_list-keywords.xlsx
+++ b/prof_list-keywords.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Anandalakshmi R.</t>
   </si>
   <si>
-    <t xml:space="preserve">Anandalakshmi</t>
+    <t xml:space="preserve">Ananda</t>
   </si>
   <si>
     <t xml:space="preserve">Bandyopadhyay Dipankar</t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">Goud Vaibhav V.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vaibhav</t>
+    <t xml:space="preserve">Goud</t>
   </si>
   <si>
     <t xml:space="preserve">Gupta Raghvendra</t>
@@ -157,7 +157,7 @@
     <t xml:space="preserve">Mohanty Kaustubha</t>
   </si>
   <si>
-    <t xml:space="preserve">Kaustubha</t>
+    <t xml:space="preserve">Mohanty</t>
   </si>
   <si>
     <t xml:space="preserve">Moholkar Vijay S.</t>
@@ -169,13 +169,13 @@
     <t xml:space="preserve">Nageswara Rao Peela</t>
   </si>
   <si>
-    <t xml:space="preserve">Nageswara</t>
+    <t xml:space="preserve">Nageshwar</t>
   </si>
   <si>
     <t xml:space="preserve">Pugazhenthi G.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pugazhenthi</t>
+    <t xml:space="preserve">Pugazenthi</t>
   </si>
   <si>
     <t xml:space="preserve">Purkait Mihir Kumar</t>
@@ -187,7 +187,7 @@
     <t xml:space="preserve">Saha Prabirkumar</t>
   </si>
   <si>
-    <t xml:space="preserve">Prabirkumar</t>
+    <t xml:space="preserve">Prabir</t>
   </si>
   <si>
     <t xml:space="preserve">Senthilmurugan S</t>
@@ -229,7 +229,7 @@
     <t xml:space="preserve">Vairakannu Prabu</t>
   </si>
   <si>
-    <t xml:space="preserve">Vairakannu</t>
+    <t xml:space="preserve">prabu</t>
   </si>
   <si>
     <t xml:space="preserve">Venkatesh R. Prasanna</t>
@@ -245,7 +245,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -267,6 +267,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -311,8 +317,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -335,11 +345,11 @@
   </sheetPr>
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.86"/>
@@ -521,11 +531,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -545,11 +555,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
     </row>
